--- a/src/test/Data/ResultDemo.xlsx
+++ b/src/test/Data/ResultDemo.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Long\Working\Day\Bai tap\M33\Maven_TestNG_SeleniumBasicFramework_Guru99\src\test\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{346C2D18-663E-493A-8921-07CF64B9D4DE}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12225" windowWidth="28800" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
+    <workbookView windowHeight="12225" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Result" r:id="rId1" sheetId="1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="24">
   <si>
     <t>TC_ID</t>
   </si>
@@ -34,19 +28,70 @@
     <t>Note</t>
   </si>
   <si>
-    <t>TC01</t>
+    <t>TC_REQ_REQ_UPM_Login_03_08</t>
   </si>
   <si>
-    <t>Verify user can login with valid username and password</t>
+    <t>Verify that user cannot login with a email of user was deleted</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>TC_REQ_REQ_UPM_Login_02_03</t>
+  </si>
+  <si>
+    <t>Verify that user can login with correct username and password</t>
   </si>
   <si>
     <t>Passed</t>
+  </si>
+  <si>
+    <t>TC_REQ_REQ_UPM_Login_03_01</t>
+  </si>
+  <si>
+    <t>Verify that user cannot login when leaving Email and Password fields are blank</t>
+  </si>
+  <si>
+    <t>TC_REQ_REQ_UPM_Login_03_02</t>
+  </si>
+  <si>
+    <t>Verify that user cannot login when leaving Password field blank</t>
+  </si>
+  <si>
+    <t>TC_REQ_REQ_UPM_Login_03_03</t>
+  </si>
+  <si>
+    <t>Verify that user cannot login when leaving Email field blank</t>
+  </si>
+  <si>
+    <t>TC_REQ_REQ_UPM_Login_03_04</t>
+  </si>
+  <si>
+    <t>Verify that user cannot login with a correct email and incorrect password</t>
+  </si>
+  <si>
+    <t>TC_REQ_REQ_UPM_Login_03_05</t>
+  </si>
+  <si>
+    <t>Verify that user cannot login with an incorrect email</t>
+  </si>
+  <si>
+    <t>TC_REQ_REQ_UPM_Login_03_06</t>
+  </si>
+  <si>
+    <t>Verify that user cannot login with an invalid email</t>
+  </si>
+  <si>
+    <t>TC_REQ_REQ_UPM_Login_03_07</t>
+  </si>
+  <si>
+    <t>Verify that user cannot login with an email of user was blocked</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -57,21 +102,1337 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="265">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="266">
     <border>
       <left/>
       <right/>
@@ -79,15 +1440,1351 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="2" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="133">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="9" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="9" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="13" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="13" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="33" fillId="30" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="33" fillId="32" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="37" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="37" fillId="36" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="41" fillId="38" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="41" fillId="40" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="45" fillId="42" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="45" fillId="44" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="49" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="49" fillId="48" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="53" fillId="50" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="53" fillId="52" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="57" fillId="54" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="57" fillId="56" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="61" fillId="58" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="61" fillId="60" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="65" fillId="62" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="65" fillId="64" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="69" fillId="66" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="69" fillId="68" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="73" fillId="70" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="73" fillId="72" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="77" fillId="74" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="77" fillId="76" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="81" fillId="78" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="81" fillId="80" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="85" fillId="82" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="85" fillId="84" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="89" fillId="86" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="89" fillId="88" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="93" fillId="90" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="93" fillId="92" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="97" fillId="94" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="97" fillId="96" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="101" fillId="98" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="101" fillId="100" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="105" fillId="102" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="105" fillId="104" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="109" fillId="106" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="109" fillId="108" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="113" fillId="110" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="113" fillId="112" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="117" fillId="114" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="117" fillId="116" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="121" fillId="118" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="121" fillId="120" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="125" fillId="122" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="125" fillId="124" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="129" fillId="126" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="129" fillId="128" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="133" fillId="130" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="133" fillId="132" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="137" fillId="134" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="137" fillId="136" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="141" fillId="138" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="141" fillId="140" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="145" fillId="142" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="145" fillId="144" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="149" fillId="146" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="149" fillId="148" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="153" fillId="150" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="153" fillId="152" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="157" fillId="154" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="157" fillId="156" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="161" fillId="158" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="161" fillId="160" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="165" fillId="162" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="165" fillId="164" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="169" fillId="166" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="169" fillId="168" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="173" fillId="170" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="173" fillId="172" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="177" fillId="174" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="177" fillId="176" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="181" fillId="178" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="181" fillId="180" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="185" fillId="182" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="185" fillId="184" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="189" fillId="186" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="189" fillId="188" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="193" fillId="190" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="193" fillId="192" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="197" fillId="194" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="197" fillId="196" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="201" fillId="198" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="201" fillId="200" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="205" fillId="202" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="205" fillId="204" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="209" fillId="206" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="209" fillId="208" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="213" fillId="210" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="213" fillId="212" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="217" fillId="214" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="217" fillId="216" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="221" fillId="218" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="221" fillId="220" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="225" fillId="222" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="225" fillId="224" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="229" fillId="226" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="229" fillId="228" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="233" fillId="230" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="233" fillId="232" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="237" fillId="234" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="237" fillId="236" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="241" fillId="238" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="241" fillId="240" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="245" fillId="242" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="245" fillId="244" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="249" fillId="246" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="249" fillId="248" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="253" fillId="250" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="253" fillId="252" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="257" fillId="254" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="257" fillId="256" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="261" fillId="258" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="261" fillId="260" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="262" borderId="265" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="264" borderId="265" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle builtinId="20" name="Input" xfId="1"/>
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -146,7 +2843,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -198,7 +2895,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -399,22 +3096,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C31"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.1171875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="50.75" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.8671875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.0703125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="31.0234375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="71.12890625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.921875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="5.44921875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="18.75" r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,40 +3125,734 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B11" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C11" s="20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
+    <row r="12">
+      <c r="A12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B26" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C26" s="50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="79" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="79" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="84" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="85" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="86" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="87" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="88" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="89" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="90" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="92" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="93" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="94" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="95" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="95" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="96" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="97" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="99" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="100" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="101" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="102" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="103" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="104" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="106" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="107" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" s="107" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" s="108" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="109" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" s="109" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="110" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" s="111" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="112" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="113" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="113" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="114" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="115" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="116" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="117" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="117" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="118" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="119" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" s="119" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="120" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="121" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="122" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="123" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" s="123" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="124" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="125" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" s="125" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" s="126" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="127" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" s="127" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65" s="128" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="129" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" s="129" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" s="130" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="131">
+        <v>4</v>
+      </c>
+      <c r="B67" t="s" s="131">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s" s="132">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup copies="0" horizontalDpi="200" orientation="portrait" r:id="rId1" verticalDpi="200"/>
 </worksheet>
 </file>
--- a/src/test/Data/ResultDemo.xlsx
+++ b/src/test/Data/ResultDemo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="26">
   <si>
     <t>TC_ID</t>
   </si>
@@ -87,6 +87,12 @@
   <si>
     <t>Verify that user cannot login with an email of user was blocked</t>
   </si>
+  <si>
+    <t>TC_REQ_UPM_Update_03_01</t>
+  </si>
+  <si>
+    <t>Verify that 'Edit success!' message displays when user updates information successfully</t>
+  </si>
 </sst>
 </file>
 
@@ -109,7 +115,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="265">
+  <fills count="269">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1431,8 +1437,28 @@
         <fgColor indexed="10"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="266">
+  <borders count="270">
     <border>
       <left/>
       <right/>
@@ -2643,12 +2669,30 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="2" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="135">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="1"/>
     <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
@@ -2780,8 +2824,10 @@
     <xf applyBorder="true" applyFill="true" borderId="257" fillId="256" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="261" fillId="258" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="261" fillId="260" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="262" borderId="265" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="264" borderId="265" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="265" fillId="262" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="265" fillId="264" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="266" borderId="269" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="268" borderId="269" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="20" name="Input" xfId="1"/>
@@ -3097,7 +3143,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -3106,7 +3152,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="31.0234375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="71.12890625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="78.8984375" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="9.921875" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="5.44921875" collapsed="true"/>
   </cols>
@@ -3841,14 +3887,25 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="131">
+      <c r="A67" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="B67" t="s" s="131">
+      <c r="B67" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="C67" t="s" s="132">
+      <c r="C67" s="132" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="133">
+        <v>24</v>
+      </c>
+      <c r="B68" t="s" s="133">
+        <v>25</v>
+      </c>
+      <c r="C68" t="s" s="134">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/Data/ResultDemo.xlsx
+++ b/src/test/Data/ResultDemo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="42">
   <si>
     <t>TC_ID</t>
   </si>
@@ -93,6 +93,54 @@
   <si>
     <t>Verify that 'Edit success!' message displays when user updates information successfully</t>
   </si>
+  <si>
+    <t>TC_REQ_UPM_Update_04_01</t>
+  </si>
+  <si>
+    <t>Verify that 'Please enter your name' red message displays when leaving Name field blank</t>
+  </si>
+  <si>
+    <t>TC_REQ_UPM_Update_04_02</t>
+  </si>
+  <si>
+    <t>Verify that 'Please enter your company' red message displays when leaving Company field blank</t>
+  </si>
+  <si>
+    <t>TC_REQ_UPM_Update_04_03</t>
+  </si>
+  <si>
+    <t>Verify that 'Please enter your phone' red message displays when leaving Phone field blank</t>
+  </si>
+  <si>
+    <t>TC_REQ_UPM_Update_04_04</t>
+  </si>
+  <si>
+    <t>Verify that 'Only numbers 0-9' red message displays when user enters any letters into Phone field</t>
+  </si>
+  <si>
+    <t>TC_REQ_UPM_Update_04_05</t>
+  </si>
+  <si>
+    <t>Verify that 'Phone is 10-14 numbers' red message displays above Phone filed when user enters 3 numbers into Phone field</t>
+  </si>
+  <si>
+    <t>TC_REQ_UPM_Update_04_06</t>
+  </si>
+  <si>
+    <t>Verify that 'Phone is 10-14 numbers' red message displays above Phone filed when user enters 9 numbers into Phone field</t>
+  </si>
+  <si>
+    <t>TC_REQ_UPM_Update_04_07</t>
+  </si>
+  <si>
+    <t>Verify that 'Phone is 10-14 numbers' red message displays above Phone filed when user enters 15 numbers into Phone field</t>
+  </si>
+  <si>
+    <t>TC_REQ_UPM_Update_04_08</t>
+  </si>
+  <si>
+    <t>Verify that 'Phone is 10-14 numbers' red message displays above Phone filed when user enters 19 numbers into Phone field</t>
+  </si>
 </sst>
 </file>
 
@@ -115,7 +163,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="269">
+  <fills count="441">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1457,8 +1505,868 @@
         <fgColor indexed="42"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="270">
+  <borders count="442">
     <border>
       <left/>
       <right/>
@@ -2687,12 +3595,786 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="2" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="221">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="1"/>
     <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
@@ -2826,8 +4508,94 @@
     <xf applyBorder="true" applyFill="true" borderId="261" fillId="260" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="265" fillId="262" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="265" fillId="264" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="266" borderId="269" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="268" borderId="269" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="269" fillId="266" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="269" fillId="268" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="273" fillId="270" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="273" fillId="272" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="277" fillId="274" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="277" fillId="276" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="281" fillId="278" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="281" fillId="280" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="285" fillId="282" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="285" fillId="284" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="289" fillId="286" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="289" fillId="288" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="293" fillId="290" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="293" fillId="292" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="297" fillId="294" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="297" fillId="296" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="301" fillId="298" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="301" fillId="300" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="305" fillId="302" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="305" fillId="304" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="309" fillId="306" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="309" fillId="308" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="313" fillId="310" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="313" fillId="312" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="317" fillId="314" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="317" fillId="316" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="321" fillId="318" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="321" fillId="320" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="325" fillId="322" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="325" fillId="324" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="329" fillId="326" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="329" fillId="328" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="333" fillId="330" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="333" fillId="332" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="337" fillId="334" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="337" fillId="336" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="341" fillId="338" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="341" fillId="340" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="345" fillId="342" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="345" fillId="344" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="349" fillId="346" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="349" fillId="348" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="353" fillId="350" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="353" fillId="352" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="357" fillId="354" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="357" fillId="356" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="361" fillId="358" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="361" fillId="360" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="365" fillId="362" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="365" fillId="364" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="369" fillId="366" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="369" fillId="368" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="373" fillId="370" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="373" fillId="372" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="377" fillId="374" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="377" fillId="376" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="381" fillId="378" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="381" fillId="380" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="385" fillId="382" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="385" fillId="384" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="389" fillId="386" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="389" fillId="388" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="393" fillId="390" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="393" fillId="392" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="397" fillId="394" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="397" fillId="396" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="401" fillId="398" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="401" fillId="400" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="405" fillId="402" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="405" fillId="404" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="409" fillId="406" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="409" fillId="408" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="413" fillId="410" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="413" fillId="412" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="417" fillId="414" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="417" fillId="416" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="421" fillId="418" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="421" fillId="420" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="425" fillId="422" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="425" fillId="424" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="429" fillId="426" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="429" fillId="428" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="433" fillId="430" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="433" fillId="432" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="437" fillId="434" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="437" fillId="436" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="438" borderId="441" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="440" borderId="441" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="20" name="Input" xfId="1"/>
@@ -3143,7 +4911,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -3152,7 +4920,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="31.0234375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="78.8984375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="111.46484375" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="9.921875" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="5.44921875" collapsed="true"/>
   </cols>
@@ -3898,14 +5666,487 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="133">
+      <c r="A68" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="B68" t="s" s="133">
+      <c r="B68" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="C68" t="s" s="134">
-        <v>9</v>
+      <c r="C68" s="134" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="135" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="135" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="136" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="137" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" s="137" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="138" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="139" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" s="139" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="140" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="141" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72" s="141" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="142" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="143" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" s="143" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="145" t="s">
+        <v>18</v>
+      </c>
+      <c r="B74" s="145" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" s="146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="147" t="s">
+        <v>20</v>
+      </c>
+      <c r="B75" s="147" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75" s="148" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="149" t="s">
+        <v>22</v>
+      </c>
+      <c r="B76" s="149" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" s="150" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="151" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="152" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="153" t="s">
+        <v>24</v>
+      </c>
+      <c r="B78" s="153" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78" s="154" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="155" t="s">
+        <v>26</v>
+      </c>
+      <c r="B79" s="155" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" s="156" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="157" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80" s="157" t="s">
+        <v>29</v>
+      </c>
+      <c r="C80" s="158" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="159" t="s">
+        <v>24</v>
+      </c>
+      <c r="B81" s="159" t="s">
+        <v>25</v>
+      </c>
+      <c r="C81" s="160" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="161" t="s">
+        <v>26</v>
+      </c>
+      <c r="B82" s="161" t="s">
+        <v>27</v>
+      </c>
+      <c r="C82" s="162" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="163" t="s">
+        <v>28</v>
+      </c>
+      <c r="B83" s="163" t="s">
+        <v>29</v>
+      </c>
+      <c r="C83" s="164" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="165" t="s">
+        <v>24</v>
+      </c>
+      <c r="B84" s="165" t="s">
+        <v>25</v>
+      </c>
+      <c r="C84" s="166" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="167" t="s">
+        <v>26</v>
+      </c>
+      <c r="B85" s="167" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85" s="168" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="169" t="s">
+        <v>28</v>
+      </c>
+      <c r="B86" s="169" t="s">
+        <v>29</v>
+      </c>
+      <c r="C86" s="170" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="171" t="s">
+        <v>30</v>
+      </c>
+      <c r="B87" s="171" t="s">
+        <v>31</v>
+      </c>
+      <c r="C87" s="172" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="173" t="s">
+        <v>24</v>
+      </c>
+      <c r="B88" s="173" t="s">
+        <v>25</v>
+      </c>
+      <c r="C88" s="174" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="175" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" s="175" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="176" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="177" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90" s="177" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="178" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="179" t="s">
+        <v>24</v>
+      </c>
+      <c r="B91" s="179" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91" s="180" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="181" t="s">
+        <v>26</v>
+      </c>
+      <c r="B92" s="181" t="s">
+        <v>27</v>
+      </c>
+      <c r="C92" s="182" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="183" t="s">
+        <v>28</v>
+      </c>
+      <c r="B93" s="183" t="s">
+        <v>29</v>
+      </c>
+      <c r="C93" s="184" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="185" t="s">
+        <v>30</v>
+      </c>
+      <c r="B94" s="185" t="s">
+        <v>31</v>
+      </c>
+      <c r="C94" s="186" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="187" t="s">
+        <v>24</v>
+      </c>
+      <c r="B95" s="187" t="s">
+        <v>25</v>
+      </c>
+      <c r="C95" s="188" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="189" t="s">
+        <v>26</v>
+      </c>
+      <c r="B96" s="189" t="s">
+        <v>27</v>
+      </c>
+      <c r="C96" s="190" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="191" t="s">
+        <v>28</v>
+      </c>
+      <c r="B97" s="191" t="s">
+        <v>29</v>
+      </c>
+      <c r="C97" s="192" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="193" t="s">
+        <v>30</v>
+      </c>
+      <c r="B98" s="193" t="s">
+        <v>31</v>
+      </c>
+      <c r="C98" s="194" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="195" t="s">
+        <v>32</v>
+      </c>
+      <c r="B99" s="195" t="s">
+        <v>33</v>
+      </c>
+      <c r="C99" s="196" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="197" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" s="197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="198" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="199" t="s">
+        <v>22</v>
+      </c>
+      <c r="B101" s="199" t="s">
+        <v>23</v>
+      </c>
+      <c r="C101" s="200" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="201" t="s">
+        <v>34</v>
+      </c>
+      <c r="B102" s="201" t="s">
+        <v>35</v>
+      </c>
+      <c r="C102" s="202" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="203" t="s">
+        <v>24</v>
+      </c>
+      <c r="B103" s="203" t="s">
+        <v>25</v>
+      </c>
+      <c r="C103" s="204" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="205" t="s">
+        <v>26</v>
+      </c>
+      <c r="B104" s="205" t="s">
+        <v>27</v>
+      </c>
+      <c r="C104" s="206" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="207" t="s">
+        <v>28</v>
+      </c>
+      <c r="B105" s="207" t="s">
+        <v>29</v>
+      </c>
+      <c r="C105" s="208" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="209" t="s">
+        <v>30</v>
+      </c>
+      <c r="B106" s="209" t="s">
+        <v>31</v>
+      </c>
+      <c r="C106" s="210" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="211" t="s">
+        <v>32</v>
+      </c>
+      <c r="B107" s="211" t="s">
+        <v>33</v>
+      </c>
+      <c r="C107" s="212" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="213" t="s">
+        <v>34</v>
+      </c>
+      <c r="B108" s="213" t="s">
+        <v>35</v>
+      </c>
+      <c r="C108" s="214" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="215" t="s">
+        <v>36</v>
+      </c>
+      <c r="B109" s="215" t="s">
+        <v>37</v>
+      </c>
+      <c r="C109" s="216" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="217" t="s">
+        <v>38</v>
+      </c>
+      <c r="B110" s="217" t="s">
+        <v>39</v>
+      </c>
+      <c r="C110" s="218" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="219">
+        <v>40</v>
+      </c>
+      <c r="B111" t="s" s="219">
+        <v>41</v>
+      </c>
+      <c r="C111" t="s" s="220">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/Data/ResultDemo.xlsx
+++ b/src/test/Data/ResultDemo.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kimanh\Maven_TestNG_SeleniumBasicFramework_Guru99-master\CRM_Anh_Hung\src\test\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="12225" windowWidth="28800" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
   </bookViews>
   <sheets>
-    <sheet name="Result" r:id="rId1" sheetId="1"/>
+    <sheet name="Result" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>TC_ID</t>
   </si>
@@ -27,21 +32,11 @@
   <si>
     <t>Note</t>
   </si>
-  <si>
-    <t>TC_REQ_CM_AddType_01_02</t>
-  </si>
-  <si>
-    <t>Verify that user cannot create a new campaign type when leaving Campaign Name Type field blank</t>
-  </si>
-  <si>
-    <t>Passed</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -58,7 +53,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -70,48 +65,8 @@
         <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -134,61 +89,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="2" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="5" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="true" applyBorder="true"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="20" name="Input" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -205,10 +120,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -406,21 +321,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -437,7 +352,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -489,26 +404,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.92578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="89.375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.921875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="5.44921875" collapsed="true"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="116.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -525,30 +440,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="4">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="5">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup copies="0" horizontalDpi="200" orientation="portrait" r:id="rId1" verticalDpi="200"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
 </file>